--- a/thermax_backend/templates/design_basis_template.xlsx
+++ b/thermax_backend/templates/design_basis_template.xlsx
@@ -7,24 +7,25 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Design Basis"/>
-    <sheet r:id="rId2" sheetId="2" name="MCC"/>
-    <sheet r:id="rId3" sheetId="3" name="PCC"/>
-    <sheet r:id="rId4" sheetId="4" name="MCC CUM PLC"/>
+    <sheet r:id="rId1" sheetId="1" name="COVER "/>
+    <sheet r:id="rId2" sheetId="2" name="Design Basis"/>
+    <sheet r:id="rId3" sheetId="3" name="MCC"/>
+    <sheet r:id="rId4" sheetId="4" name="PCC"/>
+    <sheet r:id="rId5" sheetId="5" name="MCC CUM PLC"/>
   </sheets>
   <definedNames>
-    <definedName name="CABLEOD" localSheetId="2">#REF!</definedName>
+    <definedName name="CABLEOD" localSheetId="3">#REF!</definedName>
     <definedName name="CABLEOD">#REF!</definedName>
-    <definedName name="DATA1" localSheetId="1">[1]Sheet1!$C$5:$J$25</definedName>
+    <definedName name="DATA1" localSheetId="2">[1]Sheet1!$C$5:$J$25</definedName>
+    <definedName name="DATA1" localSheetId="4">[1]Sheet1!$C$5:$J$25</definedName>
     <definedName name="DATA1" localSheetId="3">[1]Sheet1!$C$5:$J$25</definedName>
-    <definedName name="DATA1" localSheetId="2">[1]Sheet1!$C$5:$J$25</definedName>
     <definedName name="DATA1">[2]Sheet1!$C$5:$J$25</definedName>
-    <definedName name="pf" localSheetId="2">'[3]Cable cal'!#REF!</definedName>
+    <definedName name="pf" localSheetId="3">'[3]Cable cal'!#REF!</definedName>
     <definedName name="pf">'[3]Cable cal'!#REF!</definedName>
-    <definedName name="RANGE1" localSheetId="2">[4]PGD!#REF!</definedName>
+    <definedName name="RANGE1" localSheetId="3">[4]PGD!#REF!</definedName>
     <definedName name="RANGE1">[4]PGD!#REF!</definedName>
     <definedName name="Vd">(3)^0.5*'[3]Cable cal'!XET1*('[3]Cable cal'!XFB1*0.8+'[3]Cable cal'!XFC1*0.6)*'[3]Cable cal'!XFD1/1000</definedName>
-    <definedName name="Vd_R" localSheetId="2">(3)^0.5*'[3]Cable cal'!XES1*('[3]Cable cal'!XFB1*'[3]Cable cal'!XEQ1+'[3]Cable cal'!XFC1*((1-'[3]Cable cal'!#REF!^2)^0.5))*'[3]Cable cal'!XFD1/1000</definedName>
+    <definedName name="Vd_R" localSheetId="3">(3)^0.5*'[3]Cable cal'!XES1*('[3]Cable cal'!XFB1*'[3]Cable cal'!XEQ1+'[3]Cable cal'!XFC1*((1-'[3]Cable cal'!#REF!^2)^0.5))*'[3]Cable cal'!XFD1/1000</definedName>
     <definedName name="Vd_R">(3)^0.5*'[3]Cable cal'!XES1*('[3]Cable cal'!XFB1*'[3]Cable cal'!XEQ1+'[3]Cable cal'!XFC1*((1-'[3]Cable cal'!#REF!^2)^0.5))*'[3]Cable cal'!XFD1/1000</definedName>
     <definedName name="Vd_S">(3)^0.5*'[3]Cable cal'!XER1*('[3]Cable cal'!XEZ1*0.25+'[3]Cable cal'!XFA1*0.968)*'[3]Cable cal'!XFB1/1000</definedName>
     <definedName name="Vdmax_R">#N/A</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="416">
   <si>
     <t>ENGINEERING DESIGN BASIS</t>
   </si>
@@ -1240,6 +1241,63 @@
   <si>
     <t>1.5 ohm</t>
   </si>
+  <si>
+    <t>THERMAX LIMITED</t>
+  </si>
+  <si>
+    <t>HEATING</t>
+  </si>
+  <si>
+    <t>PUNE — 411 019</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>ELECTRICAL DESIGN BASIS</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>CONSULTANT</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>THERMAX O.C. NO.</t>
+  </si>
+  <si>
+    <t>THERMAX DOC. NO. / CLIENT DOC. NO.</t>
+  </si>
+  <si>
+    <t>DESIGN BASIS</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>ISSUED FOR APPROVAL</t>
+  </si>
+  <si>
+    <t>REV NO.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PREPD. BY</t>
+  </si>
+  <si>
+    <t>CHKD. BY</t>
+  </si>
+  <si>
+    <t>APPD. BY</t>
+  </si>
 </sst>
 </file>
 
@@ -1249,7 +1307,7 @@
     <numFmt numFmtId="164" formatCode="#,##0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,8 +1379,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000ff"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,13 +1418,8 @@
         <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1682,11 +1761,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="149">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1820,9 +2109,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1835,9 +2121,6 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1981,6 +2264,162 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2284,290 +2723,1588 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="96" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="97" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="98" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="95" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="95" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="95" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="95" width="53.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="95" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="95" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="95" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="95" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="95" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="148" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="20">
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="101"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
+      <c r="A2" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
+      <c r="A3" s="107" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="27.75">
+      <c r="A4" s="110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="113"/>
+      <c r="B6" s="116" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.75">
+      <c r="A7" s="113"/>
+      <c r="B7" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="122"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.75">
+      <c r="A8" s="113"/>
+      <c r="B8" s="121" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.75">
+      <c r="A9" s="113"/>
+      <c r="B9" s="121" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="122"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.75">
+      <c r="A10" s="113"/>
+      <c r="B10" s="121" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="43.5">
+      <c r="A11" s="113"/>
+      <c r="B11" s="128" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.95">
+      <c r="A12" s="113"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.95">
+      <c r="A13" s="113"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.95">
+      <c r="A14" s="113"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.95">
+      <c r="A15" s="113"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="A16" s="113"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="113"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.95">
+      <c r="A18" s="113"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.95">
+      <c r="A19" s="113"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.95">
+      <c r="A20" s="113"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.95">
+      <c r="A21" s="113"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.95">
+      <c r="A22" s="113"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.95">
+      <c r="A23" s="113"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.95">
+      <c r="A24" s="113"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.95">
+      <c r="A25" s="113"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.95">
+      <c r="A26" s="113"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.95">
+      <c r="A27" s="113"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.95">
+      <c r="A28" s="113"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.95">
+      <c r="A29" s="113"/>
+      <c r="B29" s="139" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="138"/>
+      <c r="D29" s="140" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.95">
+      <c r="A30" s="113"/>
+      <c r="B30" s="141" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="142" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" s="142" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="142" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" s="142" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="143" t="s">
+        <v>415</v>
+      </c>
+      <c r="H30" s="115"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.95">
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.95">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.95">
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="106"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="23.25">
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="147">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="105"/>
+      <c r="AA35" s="105"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D216"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="94" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="95" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="96" width="38.71928571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="44" width="38.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="60"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="58"/>
       <c r="B3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="60">
+      <c r="A4" s="58">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="60">
+      <c r="A5" s="58">
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>198</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="60">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="60">
+      <c r="A7" s="58">
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="60" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="60">
+      <c r="A8" s="58">
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="60">
+      <c r="A9" s="58">
         <v>6</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>205</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="60">
+      <c r="A10" s="58">
         <v>7</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="60">
+      <c r="A11" s="58">
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="60">
+      <c r="A12" s="58">
         <v>9</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="60">
+      <c r="A13" s="58">
         <v>10</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="60">
+      <c r="A14" s="58">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="61">
         <v>0.35</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="61">
         <v>0.85</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="60">
+      <c r="A16" s="58">
         <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="61">
         <v>0.65</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="60">
+      <c r="A17" s="58">
         <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="61">
         <v>0.65</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="60">
+      <c r="A18" s="58">
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="60">
+      <c r="A20" s="58">
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="60">
+      <c r="A21" s="58">
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="60">
+      <c r="A22" s="58">
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="60">
+      <c r="A23" s="58">
         <v>19</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="60">
+      <c r="A24" s="58">
         <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15" customFormat="1" s="20">
-      <c r="A26" s="67"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="66" t="s">
         <v>226</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2575,53 +4312,53 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="60">
+      <c r="A27" s="58">
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="60">
+      <c r="A28" s="58">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15">
-      <c r="A29" s="60">
+      <c r="A29" s="58">
         <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="60">
+      <c r="A30" s="58">
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15">
-      <c r="A31" s="60">
+      <c r="A31" s="58">
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="67" t="s">
         <v>232</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2629,13 +4366,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15">
-      <c r="A32" s="60">
+      <c r="A32" s="58">
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="67" t="s">
         <v>232</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -2643,13 +4380,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="60">
+      <c r="A33" s="58">
         <v>27</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="67" t="s">
         <v>217</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2657,23 +4394,23 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15">
-      <c r="A34" s="60">
+      <c r="A34" s="58">
         <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="60">
+      <c r="A35" s="58">
         <v>29</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="67" t="s">
         <v>235</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -2681,13 +4418,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="60">
+      <c r="A36" s="58">
         <v>30</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="67" t="s">
         <v>235</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -2695,25 +4432,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="60">
+      <c r="A37" s="58">
         <v>31</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="67" t="s">
         <v>239</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="60">
+      <c r="A38" s="58">
         <v>32</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="67" t="s">
         <v>235</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -2721,13 +4458,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="60">
+      <c r="A39" s="58">
         <v>33</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="67" t="s">
         <v>235</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -2735,859 +4472,859 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="70">
+      <c r="A40" s="68">
         <v>34</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="60">
+      <c r="A41" s="58">
         <v>35</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="60">
+      <c r="A42" s="58">
         <v>36</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="60">
+      <c r="A43" s="58">
         <v>37</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="74"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="60">
+      <c r="A44" s="58">
         <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="60">
+      <c r="A45" s="58">
         <v>39</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="60">
+      <c r="A46" s="58">
         <v>40</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="60">
+      <c r="A47" s="58">
         <v>41</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="69"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
-      <c r="A48" s="60"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="49"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="60"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="60">
+      <c r="A50" s="58">
         <v>42</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="69"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="60">
+      <c r="A51" s="58">
         <v>43</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="69"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="60">
+      <c r="A52" s="58">
         <v>44</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="69"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="60">
+      <c r="A53" s="58">
         <v>45</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C53" s="69"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="60">
+      <c r="A54" s="58">
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="69"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="60">
+      <c r="A55" s="58">
         <v>47</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="69"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="60">
+      <c r="A56" s="58">
         <v>48</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="60"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="60"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15">
-      <c r="A59" s="60">
+      <c r="A59" s="58">
         <v>49</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="67" t="s">
         <v>260</v>
       </c>
       <c r="D59" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15">
-      <c r="A60" s="60">
+      <c r="A60" s="58">
         <v>50</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="67" t="s">
         <v>262</v>
       </c>
       <c r="D60" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="60">
+      <c r="A61" s="58">
         <v>51</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="69"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="60">
+      <c r="A62" s="58">
         <v>52</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C62" s="69"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="60"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="60">
+      <c r="A64" s="58">
         <v>53</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="76"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="60">
+      <c r="A65" s="58">
         <v>54</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="60">
+      <c r="A66" s="58">
         <v>55</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="79"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="60">
+      <c r="A67" s="58">
         <v>56</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="60">
+      <c r="A68" s="58">
         <v>57</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="77"/>
       <c r="D68" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="60">
+      <c r="A69" s="58">
         <v>58</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="79"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="60"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="49"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="60">
+      <c r="A71" s="58">
         <v>59</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="67" t="s">
         <v>262</v>
       </c>
       <c r="D71" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="60">
+      <c r="A72" s="58">
         <v>60</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="60">
+      <c r="A73" s="58">
         <v>61</v>
       </c>
       <c r="B73" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="69"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="60">
+      <c r="A74" s="58">
         <v>62</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="69"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="60">
+      <c r="A75" s="58">
         <v>63</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="69"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="60"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="49"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="60">
+      <c r="A77" s="58">
         <v>64</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="D77" s="83"/>
+      <c r="D77" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="60">
+      <c r="A78" s="58">
         <v>65</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="60">
+      <c r="A79" s="58">
         <v>66</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="60">
+      <c r="A80" s="58">
         <v>67</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="60"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="49"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="60">
+      <c r="A82" s="58">
         <v>68</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="86"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="84"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="60"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="49"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="60">
+      <c r="A84" s="58">
         <v>69</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="69"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="60"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="49"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="60">
+      <c r="A86" s="58">
         <v>70</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C86" s="69"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="60">
+      <c r="A87" s="58">
         <v>71</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C87" s="69"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="60">
+      <c r="A88" s="58">
         <v>72</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C88" s="69"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="60">
+      <c r="A89" s="58">
         <v>73</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C89" s="69"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="60">
+      <c r="A90" s="58">
         <v>74</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C90" s="69"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="60">
+      <c r="A91" s="58">
         <v>75</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C91" s="69"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15">
-      <c r="A92" s="60">
+      <c r="A92" s="58">
         <v>76</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="69"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15">
-      <c r="A93" s="60">
+      <c r="A93" s="58">
         <v>77</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C93" s="69"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="60">
+      <c r="A94" s="58">
         <v>78</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="69"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="60">
+      <c r="A95" s="58">
         <v>79</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C95" s="69"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="60">
+      <c r="A96" s="58">
         <v>80</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="79"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="60">
+      <c r="A97" s="58">
         <v>81</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C97" s="79"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="60">
+      <c r="A98" s="58">
         <v>82</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="79"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="60">
+      <c r="A99" s="58">
         <v>83</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="79"/>
+      <c r="C99" s="77"/>
       <c r="D99" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="60">
+      <c r="A100" s="58">
         <v>84</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="69"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="60">
+      <c r="A101" s="58">
         <v>85</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="69"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="60">
+      <c r="A102" s="58">
         <v>86</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="69"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="20">
-      <c r="A103" s="87"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="76"/>
+      <c r="C103" s="74"/>
       <c r="D103" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="20">
-      <c r="A104" s="87">
+      <c r="A104" s="85">
         <v>87</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="69"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="20">
-      <c r="A105" s="87">
+      <c r="A105" s="85">
         <v>88</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="69"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="20">
-      <c r="A106" s="87">
+      <c r="A106" s="85">
         <v>89</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C106" s="69"/>
+      <c r="C106" s="67"/>
       <c r="D106" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="20">
-      <c r="A107" s="87">
+      <c r="A107" s="85">
         <v>90</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C107" s="69"/>
+      <c r="C107" s="67"/>
       <c r="D107" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="60"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="61"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="60">
+      <c r="A109" s="58">
         <v>91</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C109" s="69"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="60">
+      <c r="A110" s="58">
         <v>92</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C110" s="69"/>
+      <c r="C110" s="67"/>
       <c r="D110" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="60">
+      <c r="A111" s="58">
         <v>93</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="82"/>
-      <c r="D111" s="83"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="60">
+      <c r="A112" s="58">
         <v>94</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C112" s="69"/>
+      <c r="C112" s="67"/>
       <c r="D112" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="60">
+      <c r="A113" s="58">
         <v>95</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C113" s="69"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="60">
+      <c r="A114" s="58">
         <v>96</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="83"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="60">
+      <c r="A115" s="58">
         <v>97</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="69"/>
+      <c r="C115" s="67"/>
       <c r="D115" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="60">
+      <c r="A116" s="58">
         <v>98</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="69"/>
+      <c r="C116" s="67"/>
       <c r="D116" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15">
-      <c r="A117" s="60">
+      <c r="A117" s="58">
         <v>99</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="82"/>
-      <c r="D117" s="83"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15">
-      <c r="A118" s="60">
+      <c r="A118" s="58">
         <v>100</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C118" s="82"/>
-      <c r="D118" s="83"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="60">
+      <c r="A119" s="58">
         <v>101</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="69"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="60"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C120" s="61"/>
-      <c r="D120" s="49"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="29.25">
-      <c r="A121" s="60">
+      <c r="A121" s="58">
         <v>102</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C121" s="88"/>
-      <c r="D121" s="89"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="87"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="60"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C122" s="61"/>
-      <c r="D122" s="49"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="60">
+      <c r="A123" s="58">
         <v>103</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C123" s="69"/>
+      <c r="C123" s="67"/>
       <c r="D123" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="60">
+      <c r="A124" s="58">
         <v>104</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C124" s="69"/>
+      <c r="C124" s="67"/>
       <c r="D124" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="60">
+      <c r="A125" s="58">
         <v>105</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C125" s="69"/>
+      <c r="C125" s="67"/>
       <c r="D125" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15">
-      <c r="A126" s="60"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="49"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15">
-      <c r="A127" s="60"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C127" s="68" t="s">
+      <c r="C127" s="66" t="s">
         <v>226</v>
       </c>
       <c r="D127" s="9" t="s">
@@ -3595,169 +5332,169 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="60">
+      <c r="A128" s="58">
         <v>106</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C128" s="69"/>
+      <c r="C128" s="67"/>
       <c r="D128" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="60">
+      <c r="A129" s="58">
         <v>107</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C129" s="69"/>
+      <c r="C129" s="67"/>
       <c r="D129" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="60">
+      <c r="A130" s="58">
         <v>108</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="69"/>
+      <c r="C130" s="67"/>
       <c r="D130" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="60">
+      <c r="A131" s="58">
         <v>109</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C131" s="69"/>
+      <c r="C131" s="67"/>
       <c r="D131" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="60">
+      <c r="A132" s="58">
         <v>110</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C132" s="69"/>
+      <c r="C132" s="67"/>
       <c r="D132" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="60">
+      <c r="A133" s="58">
         <v>111</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C133" s="69"/>
+      <c r="C133" s="67"/>
       <c r="D133" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="60">
+      <c r="A134" s="58">
         <v>112</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C134" s="69"/>
+      <c r="C134" s="67"/>
       <c r="D134" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15">
-      <c r="A135" s="60"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="61"/>
-      <c r="D135" s="49"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15">
-      <c r="A136" s="60">
+      <c r="A136" s="58">
         <v>113</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="90"/>
+      <c r="C136" s="88"/>
       <c r="D136" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15">
-      <c r="A137" s="60">
+      <c r="A137" s="58">
         <v>114</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C137" s="90"/>
+      <c r="C137" s="88"/>
       <c r="D137" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15">
-      <c r="A138" s="60">
+      <c r="A138" s="58">
         <v>115</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C138" s="90"/>
+      <c r="C138" s="88"/>
       <c r="D138" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15">
-      <c r="A139" s="60">
+      <c r="A139" s="58">
         <v>116</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C139" s="90"/>
+      <c r="C139" s="88"/>
       <c r="D139" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15">
-      <c r="A140" s="60">
+      <c r="A140" s="58">
         <v>117</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C140" s="90"/>
+      <c r="C140" s="88"/>
       <c r="D140" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15">
-      <c r="A141" s="60">
+      <c r="A141" s="58">
         <v>118</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C141" s="90"/>
+      <c r="C141" s="88"/>
       <c r="D141" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15">
-      <c r="A142" s="60">
+      <c r="A142" s="58">
         <v>119</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C142" s="90"/>
+      <c r="C142" s="88"/>
       <c r="D142" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15">
-      <c r="A143" s="60">
+      <c r="A143" s="58">
         <v>120</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C143" s="90"/>
+      <c r="C143" s="88"/>
       <c r="D143" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15">
-      <c r="A144" s="60"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="66" t="s">
         <v>226</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -3765,722 +5502,722 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="60">
+      <c r="A145" s="58">
         <v>121</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C145" s="69"/>
+      <c r="C145" s="67"/>
       <c r="D145" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="60">
+      <c r="A146" s="58">
         <v>122</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C146" s="69"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="60">
+      <c r="A147" s="58">
         <v>123</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C147" s="69"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="60">
+      <c r="A148" s="58">
         <v>124</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="69"/>
+      <c r="C148" s="67"/>
       <c r="D148" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="60">
+      <c r="A149" s="58">
         <v>125</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C149" s="69"/>
+      <c r="C149" s="67"/>
       <c r="D149" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="60">
+      <c r="A150" s="58">
         <v>126</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C150" s="69"/>
+      <c r="C150" s="67"/>
       <c r="D150" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="60">
+      <c r="A151" s="58">
         <v>127</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="69"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="60"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C152" s="61"/>
-      <c r="D152" s="49"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15">
-      <c r="A153" s="60">
+      <c r="A153" s="58">
         <v>128</v>
       </c>
-      <c r="B153" s="84" t="s">
+      <c r="B153" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="C153" s="69" t="s">
+      <c r="C153" s="67" t="s">
         <v>337</v>
       </c>
       <c r="D153" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="60"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C154" s="61"/>
-      <c r="D154" s="49"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="60">
+      <c r="A155" s="58">
         <v>129</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C155" s="69"/>
+      <c r="C155" s="67"/>
       <c r="D155" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="60">
+      <c r="A156" s="58">
         <v>130</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C156" s="69"/>
+      <c r="C156" s="67"/>
       <c r="D156" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="60">
+      <c r="A157" s="58">
         <v>131</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="69"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="60">
+      <c r="A158" s="58">
         <v>132</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C158" s="69"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="60">
+      <c r="A159" s="58">
         <v>133</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C159" s="69"/>
+      <c r="C159" s="67"/>
       <c r="D159" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15">
-      <c r="A160" s="60"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C160" s="68"/>
+      <c r="C160" s="66"/>
       <c r="D160" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="60">
+      <c r="A161" s="58">
         <v>134</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C161" s="69"/>
+      <c r="C161" s="67"/>
       <c r="D161" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="60">
+      <c r="A162" s="58">
         <v>135</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="69"/>
+      <c r="C162" s="67"/>
       <c r="D162" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="60">
+      <c r="A163" s="58">
         <v>136</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C163" s="69"/>
+      <c r="C163" s="67"/>
       <c r="D163" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="60">
+      <c r="A164" s="58">
         <v>137</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C164" s="69"/>
+      <c r="C164" s="67"/>
       <c r="D164" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="60">
+      <c r="A165" s="58">
         <v>138</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C165" s="69"/>
+      <c r="C165" s="67"/>
       <c r="D165" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15">
-      <c r="A166" s="60"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C166" s="68"/>
+      <c r="C166" s="66"/>
       <c r="D166" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="60">
+      <c r="A167" s="58">
         <v>139</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C167" s="69"/>
+      <c r="C167" s="67"/>
       <c r="D167" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="60">
+      <c r="A168" s="58">
         <v>140</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C168" s="69"/>
+      <c r="C168" s="67"/>
       <c r="D168" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="60">
+      <c r="A169" s="58">
         <v>141</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C169" s="69"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="60">
+      <c r="A170" s="58">
         <v>142</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C170" s="69"/>
+      <c r="C170" s="67"/>
       <c r="D170" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15">
-      <c r="A171" s="60">
+      <c r="A171" s="58">
         <v>143</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C171" s="69"/>
+      <c r="C171" s="67"/>
       <c r="D171" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15">
-      <c r="A172" s="60">
+      <c r="A172" s="58">
         <v>144</v>
       </c>
       <c r="B172" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C172" s="69"/>
+      <c r="C172" s="67"/>
       <c r="D172" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15">
-      <c r="A173" s="60">
+      <c r="A173" s="58">
         <v>145</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C173" s="69"/>
+      <c r="C173" s="67"/>
       <c r="D173" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="60">
+      <c r="A174" s="58">
         <v>146</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C174" s="69"/>
+      <c r="C174" s="67"/>
       <c r="D174" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="60"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C175" s="61"/>
-      <c r="D175" s="49"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="60">
+      <c r="A176" s="58">
         <v>147</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C176" s="69"/>
+      <c r="C176" s="67"/>
       <c r="D176" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="60">
+      <c r="A177" s="58">
         <v>148</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C177" s="69"/>
+      <c r="C177" s="67"/>
       <c r="D177" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="60">
+      <c r="A178" s="58">
         <v>149</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C178" s="82"/>
-      <c r="D178" s="83"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="60"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C179" s="61"/>
-      <c r="D179" s="49"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="60">
+      <c r="A180" s="58">
         <v>150</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C180" s="90"/>
+      <c r="C180" s="88"/>
       <c r="D180" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15">
-      <c r="A181" s="60">
+      <c r="A181" s="58">
         <v>151</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C181" s="69"/>
+      <c r="C181" s="67"/>
       <c r="D181" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15">
-      <c r="A182" s="60"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C182" s="61"/>
-      <c r="D182" s="49"/>
+      <c r="C182" s="59"/>
+      <c r="D182" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="60">
+      <c r="A183" s="58">
         <v>152</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="69"/>
+      <c r="C183" s="67"/>
       <c r="D183" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="60">
+      <c r="A184" s="58">
         <v>153</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C184" s="69"/>
+      <c r="C184" s="67"/>
       <c r="D184" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="60">
+      <c r="A185" s="58">
         <v>154</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C185" s="69"/>
+      <c r="C185" s="67"/>
       <c r="D185" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="60">
+      <c r="A186" s="58">
         <v>155</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C186" s="69"/>
+      <c r="C186" s="67"/>
       <c r="D186" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
-      <c r="A187" s="60">
+      <c r="A187" s="58">
         <v>156</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C187" s="91">
+      <c r="C187" s="89">
         <v>0.025</v>
       </c>
-      <c r="D187" s="92"/>
+      <c r="D187" s="90"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="60">
+      <c r="A188" s="58">
         <v>157</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C188" s="69">
+      <c r="C188" s="67">
         <v>0.15</v>
       </c>
       <c r="D188" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="60">
+      <c r="A189" s="58">
         <v>158</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C189" s="82"/>
-      <c r="D189" s="83"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="81"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="60">
+      <c r="A190" s="58">
         <v>159</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C190" s="69" t="s">
+      <c r="C190" s="67" t="s">
         <v>367</v>
       </c>
       <c r="D190" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="60">
+      <c r="A191" s="58">
         <v>160</v>
       </c>
       <c r="B191" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C191" s="69" t="s">
+      <c r="C191" s="67" t="s">
         <v>369</v>
       </c>
       <c r="D191" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="60">
+      <c r="A192" s="58">
         <v>161</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C192" s="69"/>
+      <c r="C192" s="67"/>
       <c r="D192" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="60">
+      <c r="A193" s="58">
         <v>162</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C193" s="69"/>
+      <c r="C193" s="67"/>
       <c r="D193" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="60">
+      <c r="A194" s="58">
         <v>163</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C194" s="69"/>
+      <c r="C194" s="67"/>
       <c r="D194" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="60">
+      <c r="A195" s="58">
         <v>164</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C195" s="69"/>
+      <c r="C195" s="67"/>
       <c r="D195" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="60">
+      <c r="A196" s="58">
         <v>165</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C196" s="69"/>
+      <c r="C196" s="67"/>
       <c r="D196" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15">
-      <c r="A197" s="60">
+      <c r="A197" s="58">
         <v>166</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C197" s="69"/>
+      <c r="C197" s="67"/>
       <c r="D197" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15">
-      <c r="A198" s="60"/>
+      <c r="A198" s="58"/>
       <c r="B198" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C198" s="61"/>
-      <c r="D198" s="49"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="60">
+      <c r="A199" s="58">
         <v>167</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C199" s="69"/>
+      <c r="C199" s="67"/>
       <c r="D199" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="60">
+      <c r="A200" s="58">
         <v>168</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C200" s="69"/>
+      <c r="C200" s="67"/>
       <c r="D200" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="60">
+      <c r="A201" s="58">
         <v>169</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C201" s="69"/>
+      <c r="C201" s="67"/>
       <c r="D201" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="60">
+      <c r="A202" s="58">
         <v>170</v>
       </c>
       <c r="B202" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C202" s="93"/>
-      <c r="D202" s="94"/>
+      <c r="C202" s="91"/>
+      <c r="D202" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="60">
+      <c r="A203" s="58">
         <v>171</v>
       </c>
       <c r="B203" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C203" s="93"/>
-      <c r="D203" s="94"/>
+      <c r="C203" s="91"/>
+      <c r="D203" s="92"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="60"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C204" s="61"/>
-      <c r="D204" s="49"/>
+      <c r="C204" s="59"/>
+      <c r="D204" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="60">
+      <c r="A205" s="58">
         <v>172</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C205" s="90"/>
+      <c r="C205" s="88"/>
       <c r="D205" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="60">
+      <c r="A206" s="58">
         <v>173</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C206" s="69">
+      <c r="C206" s="67">
         <v>0.1</v>
       </c>
       <c r="D206" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="60">
+      <c r="A207" s="58">
         <v>174</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C207" s="69"/>
+      <c r="C207" s="67"/>
       <c r="D207" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="60">
+      <c r="A208" s="58">
         <v>175</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C208" s="69"/>
+      <c r="C208" s="67"/>
       <c r="D208" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="60">
+      <c r="A209" s="58">
         <v>176</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C209" s="69" t="s">
+      <c r="C209" s="67" t="s">
         <v>388</v>
       </c>
       <c r="D209" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="60">
+      <c r="A210" s="58">
         <v>177</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C210" s="69" t="s">
+      <c r="C210" s="67" t="s">
         <v>388</v>
       </c>
       <c r="D210" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="60">
+      <c r="A211" s="58">
         <v>178</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C211" s="69"/>
+      <c r="C211" s="67"/>
       <c r="D211" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="60"/>
+      <c r="A212" s="58"/>
       <c r="B212" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C212" s="61"/>
-      <c r="D212" s="49"/>
+      <c r="C212" s="59"/>
+      <c r="D212" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="60">
+      <c r="A213" s="58">
         <v>179</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C213" s="69"/>
+      <c r="C213" s="67"/>
       <c r="D213" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="60">
+      <c r="A214" s="58">
         <v>180</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C214" s="69"/>
+      <c r="C214" s="67"/>
       <c r="D214" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="60">
+      <c r="A215" s="58">
         <v>181</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C215" s="69"/>
+      <c r="C215" s="67"/>
       <c r="D215" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="60">
+      <c r="A216" s="58">
         <v>182</v>
       </c>
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C216" s="95" t="s">
+      <c r="C216" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="D216" s="51"/>
+      <c r="D216" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="177">
@@ -4666,7 +6403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4821,7 +6558,7 @@
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="10">
@@ -4870,7 +6607,7 @@
       <c r="A23" s="10">
         <v>16</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="12"/>
@@ -5388,10 +7125,10 @@
       <c r="A79" s="10">
         <v>65</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="51"/>
+      <c r="C79" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5413,7 +7150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5426,7 +7163,7 @@
   <cols>
     <col min="1" max="1" style="43" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="44" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="48" width="55.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="55.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -5462,7 +7199,7 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6119,10 +7856,10 @@
       <c r="A77" s="10">
         <v>64</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="47"/>
+      <c r="C77" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6143,7 +7880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
